--- a/Save/Table2_Compare_Original.xlsx
+++ b/Save/Table2_Compare_Original.xlsx
@@ -489,42 +489,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.544</t>
+          <t>0.530</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>0.721</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.804</t>
+          <t>0.799</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>0.721</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.711</t>
+          <t>0.701</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.712</t>
+          <t>0.703</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.124</t>
+          <t>0.126</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.839</t>
+          <t>0.831</t>
         </is>
       </c>
     </row>
@@ -536,32 +536,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.495</t>
+          <t>0.492</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.733</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.806</t>
+          <t>0.804</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.733</t>
+          <t>0.730</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.714</t>
+          <t>0.705</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.710</t>
+          <t>0.707</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.836</t>
+          <t>0.837</t>
         </is>
       </c>
     </row>
@@ -583,42 +583,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.535</t>
+          <t>0.500</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.736</t>
+          <t>0.716</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.801</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.736</t>
+          <t>0.716</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>0.693</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.722</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.128</t>
+          <t>0.131</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.834</t>
+          <t>0.823</t>
         </is>
       </c>
     </row>
@@ -630,32 +630,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.507</t>
+          <t>0.502</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.726</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.807</t>
+          <t>0.809</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.726</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.703</t>
+          <t>0.704</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.709</t>
+          <t>0.710</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -677,32 +677,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.530</t>
+          <t>0.547</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.737</t>
+          <t>0.740</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.815</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.737</t>
+          <t>0.740</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.721</t>
+          <t>0.728</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.722</t>
+          <t>0.726</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -724,42 +724,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.530</t>
+          <t>0.529</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>0.725</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.804</t>
+          <t>0.803</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>0.725</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.712</t>
+          <t>0.705</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.711</t>
+          <t>0.708</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.124</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.839</t>
+          <t>0.834</t>
         </is>
       </c>
     </row>
@@ -771,42 +771,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.517</t>
+          <t>0.514</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.732</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.812</t>
+          <t>0.806</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.732</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.711</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.716</t>
+          <t>0.706</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.125</t>
+          <t>0.129</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.838</t>
+          <t>0.832</t>
         </is>
       </c>
     </row>
@@ -818,42 +818,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.497</t>
+          <t>0.470</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.647</t>
+          <t>0.632</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.769</t>
+          <t>0.762</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.647</t>
+          <t>0.632</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.644</t>
+          <t>0.631</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.645</t>
+          <t>0.631</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.213</t>
+          <t>0.223</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.731</t>
+          <t>0.703</t>
         </is>
       </c>
     </row>
@@ -865,32 +865,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.464</t>
+          <t>0.461</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.723</t>
+          <t>0.718</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.793</t>
+          <t>0.790</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.723</t>
+          <t>0.718</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.723</t>
+          <t>0.719</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.691</t>
+          <t>0.687</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.823</t>
         </is>
       </c>
     </row>
@@ -917,37 +917,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.688</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.771</t>
+          <t>0.774</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.688</t>
+          <t>0.690</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.661</t>
+          <t>0.663</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.664</t>
+          <t>0.666</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.152</t>
+          <t>0.151</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.718</t>
+          <t>0.719</t>
         </is>
       </c>
     </row>
@@ -1025,42 +1025,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.739</t>
+          <t>0.728</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.765</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.739</t>
+          <t>0.728</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.765</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>0.763</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.769</t>
+          <t>0.758</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.161</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.815</t>
+          <t>0.807</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.728</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.728</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.771</t>
+          <t>0.770</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.760</t>
+          <t>0.761</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.819</t>
+          <t>0.822</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.732</t>
+          <t>0.736</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>0.768</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.736</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.768</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>0.765</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.732</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.765</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>0.762</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.760</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1166,42 +1166,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.743</t>
+          <t>0.740</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.779</t>
+          <t>0.774</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.743</t>
+          <t>0.740</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.779</t>
+          <t>0.774</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.778</t>
+          <t>0.771</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.772</t>
+          <t>0.768</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>0.158</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.828</t>
+          <t>0.825</t>
         </is>
       </c>
     </row>
@@ -1213,42 +1213,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.741</t>
+          <t>0.736</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.772</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.741</t>
+          <t>0.736</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.772</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>0.770</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.770</t>
+          <t>0.765</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.155</t>
+          <t>0.157</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.832</t>
+          <t>0.827</t>
         </is>
       </c>
     </row>
@@ -1260,42 +1260,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.739</t>
+          <t>0.735</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.777</t>
+          <t>0.773</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.739</t>
+          <t>0.735</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.777</t>
+          <t>0.773</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.771</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.769</t>
+          <t>0.765</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.161</t>
+          <t>0.162</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.817</t>
+          <t>0.814</t>
         </is>
       </c>
     </row>
@@ -1307,32 +1307,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.741</t>
+          <t>0.747</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.779</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.741</t>
+          <t>0.747</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.776</t>
+          <t>0.779</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.775</t>
+          <t>0.777</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.770</t>
+          <t>0.774</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.827</t>
+          <t>0.830</t>
         </is>
       </c>
     </row>
@@ -1354,42 +1354,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.707</t>
+          <t>0.703</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.727</t>
+          <t>0.724</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.707</t>
+          <t>0.703</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.727</t>
+          <t>0.724</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.726</t>
+          <t>0.722</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.726</t>
+          <t>0.723</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.249</t>
+          <t>0.251</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.760</t>
+          <t>0.757</t>
         </is>
       </c>
     </row>
@@ -1401,27 +1401,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.722</t>
+          <t>0.723</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.767</t>
+          <t>0.768</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.722</t>
+          <t>0.723</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.767</t>
+          <t>0.768</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.769</t>
+          <t>0.770</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.161</t>
+          <t>0.162</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.818</t>
+          <t>0.814</t>
         </is>
       </c>
     </row>
@@ -1448,32 +1448,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.679</t>
+          <t>0.684</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.731</t>
+          <t>0.736</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.679</t>
+          <t>0.684</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.731</t>
+          <t>0.736</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>0.735</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.715</t>
+          <t>0.720</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.751</t>
+          <t>0.752</t>
         </is>
       </c>
     </row>

--- a/Save/Table2_Compare_Original.xlsx
+++ b/Save/Table2_Compare_Original.xlsx
@@ -489,42 +489,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.530</t>
+          <t>0.520</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.721</t>
+          <t>0.714</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.799</t>
+          <t>0.797</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.721</t>
+          <t>0.714</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.701</t>
+          <t>0.695</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.703</t>
+          <t>0.698</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.126</t>
+          <t>0.129</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.831</t>
+          <t>0.821</t>
         </is>
       </c>
     </row>
@@ -536,42 +536,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.492</t>
+          <t>0.482</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.804</t>
+          <t>0.802</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.730</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.705</t>
+          <t>0.704</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.707</t>
+          <t>0.703</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.124</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.837</t>
+          <t>0.835</t>
         </is>
       </c>
     </row>
@@ -583,42 +583,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.500</t>
+          <t>0.503</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.716</t>
+          <t>0.709</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.801</t>
+          <t>0.797</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.716</t>
+          <t>0.709</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.693</t>
+          <t>0.688</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.694</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.131</t>
+          <t>0.134</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.823</t>
+          <t>0.818</t>
         </is>
       </c>
     </row>
@@ -630,42 +630,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.502</t>
+          <t>0.521</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>0.723</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.809</t>
+          <t>0.806</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>0.723</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.704</t>
+          <t>0.702</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.710</t>
+          <t>0.707</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.124</t>
+          <t>0.127</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.837</t>
+          <t>0.831</t>
         </is>
       </c>
     </row>
@@ -677,42 +677,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.547</t>
+          <t>0.525</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.740</t>
+          <t>0.731</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.815</t>
+          <t>0.811</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.740</t>
+          <t>0.731</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.728</t>
+          <t>0.713</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.726</t>
+          <t>0.716</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.841</t>
+          <t>0.835</t>
         </is>
       </c>
     </row>
@@ -724,12 +724,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.529</t>
+          <t>0.530</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.725</t>
+          <t>0.726</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.725</t>
+          <t>0.726</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.705</t>
+          <t>0.706</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.834</t>
+          <t>0.832</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.514</t>
+          <t>0.519</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.720</t>
+          <t>0.721</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -786,17 +786,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.720</t>
+          <t>0.721</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.700</t>
+          <t>0.701</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.706</t>
+          <t>0.707</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.832</t>
+          <t>0.827</t>
         </is>
       </c>
     </row>
@@ -818,42 +818,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.470</t>
+          <t>0.483</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.632</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>0.772</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.632</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.631</t>
+          <t>0.644</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.631</t>
+          <t>0.643</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.223</t>
+          <t>0.215</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.703</t>
+          <t>0.721</t>
         </is>
       </c>
     </row>
@@ -865,42 +865,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.461</t>
+          <t>0.456</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.718</t>
+          <t>0.721</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.790</t>
+          <t>0.789</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.718</t>
+          <t>0.721</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>0.671</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.687</t>
+          <t>0.686</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.128</t>
+          <t>0.129</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.823</t>
+          <t>0.828</t>
         </is>
       </c>
     </row>
@@ -912,42 +912,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.475</t>
+          <t>0.494</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.703</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>0.786</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.690</t>
+          <t>0.703</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.663</t>
+          <t>0.679</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.666</t>
+          <t>0.684</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.151</t>
+          <t>0.146</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.719</t>
+          <t>0.735</t>
         </is>
       </c>
     </row>
@@ -1025,42 +1025,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.728</t>
+          <t>0.721</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.765</t>
+          <t>0.757</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.728</t>
+          <t>0.721</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.765</t>
+          <t>0.757</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.763</t>
+          <t>0.753</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.758</t>
+          <t>0.750</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.169</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.807</t>
+          <t>0.802</t>
         </is>
       </c>
     </row>
@@ -1072,42 +1072,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>0.718</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.770</t>
+          <t>0.761</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.729</t>
+          <t>0.718</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.770</t>
+          <t>0.761</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.770</t>
+          <t>0.760</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.761</t>
+          <t>0.751</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.162</t>
+          <t>0.164</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.822</t>
+          <t>0.817</t>
         </is>
       </c>
     </row>
@@ -1119,42 +1119,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.736</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.768</t>
+          <t>0.761</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.736</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.768</t>
+          <t>0.761</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.765</t>
+          <t>0.757</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.762</t>
+          <t>0.756</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.164</t>
+          <t>0.168</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.818</t>
+          <t>0.811</t>
         </is>
       </c>
     </row>
@@ -1166,42 +1166,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.740</t>
+          <t>0.734</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>0.769</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.740</t>
+          <t>0.734</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>0.769</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.771</t>
+          <t>0.766</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.768</t>
+          <t>0.763</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.158</t>
+          <t>0.160</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.819</t>
         </is>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.772</t>
+          <t>0.771</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1228,27 +1228,27 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.772</t>
+          <t>0.771</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.770</t>
+          <t>0.768</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.765</t>
+          <t>0.764</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.157</t>
+          <t>0.156</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.827</t>
+          <t>0.832</t>
         </is>
       </c>
     </row>
@@ -1260,32 +1260,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.735</t>
+          <t>0.731</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.773</t>
+          <t>0.769</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.735</t>
+          <t>0.731</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.773</t>
+          <t>0.769</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.771</t>
+          <t>0.767</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.765</t>
+          <t>0.761</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1307,42 +1307,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.747</t>
+          <t>0.737</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.779</t>
+          <t>0.772</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.747</t>
+          <t>0.737</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.779</t>
+          <t>0.772</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.777</t>
+          <t>0.770</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.774</t>
+          <t>0.766</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.156</t>
+          <t>0.159</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.830</t>
+          <t>0.822</t>
         </is>
       </c>
     </row>
@@ -1354,37 +1354,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.703</t>
+          <t>0.706</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.724</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.703</t>
+          <t>0.706</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.724</t>
+          <t>0.729</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.722</t>
+          <t>0.726</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.723</t>
+          <t>0.727</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.251</t>
+          <t>0.248</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1401,42 +1401,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.723</t>
+          <t>0.710</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.768</t>
+          <t>0.760</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.723</t>
+          <t>0.710</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.768</t>
+          <t>0.760</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.770</t>
+          <t>0.763</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.756</t>
+          <t>0.746</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.162</t>
+          <t>0.166</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.807</t>
         </is>
       </c>
     </row>
@@ -1448,42 +1448,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.684</t>
+          <t>0.682</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.736</t>
+          <t>0.737</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.684</t>
+          <t>0.682</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.736</t>
+          <t>0.737</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.735</t>
+          <t>0.738</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.720</t>
+          <t>0.719</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.196</t>
+          <t>0.194</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.752</t>
+          <t>0.754</t>
         </is>
       </c>
     </row>
